--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45246</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45833.56451388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45173</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>45036</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45618</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45916.6836574074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45848.35298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45854</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45645</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45796.36407407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45993</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44509.6484837963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45565</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45748</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>45799.50837962963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45810</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>45904.58084490741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>45744.58121527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45303</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45841.56418981482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>45637</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45188</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45845.52780092593</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>46020</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45607</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>45576</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>45763</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44832.45053240741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44337</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44515.6055787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44421</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44414.46858796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44465</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44550</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>44510.37704861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44327.485625</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44791.68517361111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44400.52291666667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44241</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44400</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44817</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44273</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44638</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44622</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44566</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44320.3937962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44607.64876157408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>44337</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>44241</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44516.44996527778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>44516.45724537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>44434</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44241</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44266.56918981481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44806.42862268518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44547</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44435</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44791.42592592593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44405</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44526</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44683</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44376</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44810.64122685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44357.43211805556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44420.48331018518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44420.56142361111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>44613.54695601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44420.5846875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44719</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44763.73310185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44791.68009259259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44799.50680555555</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44699.56317129629</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44582</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>44858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44545</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44879</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44817</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44830</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44417</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44872.51354166667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44836.91193287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44663</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44741.31314814815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44256</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44858</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44594</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44602.43873842592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44516</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44678</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44706</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44370</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44469</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>45321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>45645</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>45103.57027777778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45743</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>45211.67328703704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45335.4540625</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45660.37150462963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>45112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45152</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>44839.55957175926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45678.46741898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>45726</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>44869.3710300926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45335</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>45418.65559027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45351</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>45748.38106481481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>45069</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>45621.4802199074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>45484</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>45618.44652777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45356</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45608.38739583334</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44434</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44953</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>45244</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44362.44429398148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45232</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44664.50883101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>45037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>45469</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>45551.46563657407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>45414.48494212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>45419.96755787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45559</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45226.60950231482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>45343.26494212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>45715.47229166667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>45653.66377314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45420.56835648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45258</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>45147.61315972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44834</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45799.55447916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45051</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44887.63310185185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>45797.75887731482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>45435.62854166667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>45162.65785879629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>45797.77982638889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45797.80165509259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45644.34481481482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45798.60412037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45799.59422453704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45659.39619212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>45736</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>45799.67479166666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45799.44024305556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44649</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45798.56194444445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45219.5571412037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45799.51512731481</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44537</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45799.43309027778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45250.56344907408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45799.65331018518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45799.59434027778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44770.51526620371</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45800</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>45887.49913194445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45803.30792824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>45800.31751157407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44938</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>45441</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>45887.38981481481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45842</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45751</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>45807.42472222223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45807</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>45261</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45807.4874537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>45754</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45799.47836805556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45546</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45196.64975694445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45216.54363425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45810</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>45216.56710648148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45461</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>45461</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45730.28657407407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45811.63986111111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45608</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45811.48480324074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45385.68678240741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45733.5946875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45811.48766203703</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45547.66456018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44924.58979166667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45443.30052083333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45810.30788194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45811.48958333334</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45811.49100694444</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45812.4793287037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45891</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>45891.4766087963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45812.43690972222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45475.4516087963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45811.76255787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45812.4759375</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45812.5916087963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45812.61487268518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45811.75707175926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45812.38479166666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>45891</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45812.56776620371</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45812.60623842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45894</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45155.6027662037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45895.40347222222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45211</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45527.59814814815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45739</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45896.42962962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45562.46731481481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45562.46958333333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45562.47201388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45897.59447916667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45896.45993055555</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44566</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45735.62614583333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45729</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44896</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45469.35829861111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45897.64236111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45898.52128472222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45898.58835648148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45819</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45898.46390046296</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>45898.51598379629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45898.51934027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45819.38481481482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>45250</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>45901</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>45818.62083333333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>45786.61974537037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>45898.34681712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>45575</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45898.36056712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45898.39212962963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45898.44184027778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45898.63945601852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>45224</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>45821</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>45821</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45902.47445601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45820.35928240741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45821.44164351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>45147.60292824074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45821</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>45902.58962962963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>45902.64282407407</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45903.67486111111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44817.55997685185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>45902.65138888889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45637.79212962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45902.45571759259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45230.55438657408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45905.56454861111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>45905.47957175926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>45905</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>45904.64195601852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>45905</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>45905.34576388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45905.34984953704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45905</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>45905.42362268519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>45904.57653935185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45905</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45062</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>45905.44949074074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45904.60241898148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45433.51168981481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45824.62241898148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45825.61381944444</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45908.36113425926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45909</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45909.47049768519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45909</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45909</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45825.6434375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45825.60394675926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45824</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45911.46101851852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45093.4815162037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45673.60954861111</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45726.47511574074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45912.35234953704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45005.34288194445</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45912.39915509259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44790.71461805556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45090</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>45826.81473379629</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45912.45163194444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>44776.29414351852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45912.40546296296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45912.47396990741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45826.35269675926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45916.4562962963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45746.69599537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45106</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>45826.46570601852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>45826.47554398148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44904.38814814815</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>45831.48282407408</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45916.45337962963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45547</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45831.60834490741</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45916.4603587963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45831.62034722222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45436</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45279.59862268518</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>45918.47267361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45919</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45918.3608912037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45831.48174768518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45831.48604166666</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45918.47600694445</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44868</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45922.37290509259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45922.98969907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45922.36545138889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45097.32498842593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45720</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>45832.48880787037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45216.3637037037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45925.64094907408</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44628</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>45925.50539351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>45107.59769675926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>45925.37614583333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>45033</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45201</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45201.5355324074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45835</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45926.37900462963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45629.40688657408</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45928.43569444444</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45835.60905092592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>45835.35399305556</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45244</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45833.84502314815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45310.48018518519</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45835.5549537037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45926.35246527778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45926.49839120371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45926.34967592593</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45927.42596064815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45929</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45927.48753472222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45926.49155092592</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>45581</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>45930.56335648148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45930.32061342592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         <v>45838</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45838</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>45933.40813657407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45103</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45839</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>45625.45358796296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>45931.81756944444</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>45838.6309375</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>45932.66314814815</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45933.37097222222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45933.38136574074</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>45933.44618055555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>45840.60511574074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>45841.62028935185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>45840.32103009259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>45716.47974537037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>45933.34479166667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>45936.62204861111</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>45841</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45841</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44757.58894675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45840.54100694445</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45264</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45323.47203703703</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45841</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45937.42246527778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>45840.59494212963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>45938.33600694445</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45937.72615740741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>45937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27330,7 +27330,7 @@
         <v>45841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45937</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45840.58363425926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45938</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45845.57174768519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>45845.57493055556</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45148.6049537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>45939.41119212963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45939.59887731481</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45941.66935185185</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45637.76869212963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45390</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>45940.45478009259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45943.38633101852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45839</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>45149.38164351852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>45145</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>44812</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44635</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45940.42521990741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>45845</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>45335.41743055556</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>45845.53253472222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>45845.51818287037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45845.5663425926</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45842</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45845.53645833334</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45510.6646875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45763</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45763</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>45947</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>45947.58401620371</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45401.61784722222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45847.59761574074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>45846</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45425.50491898148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45770.43998842593</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45848.34846064815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>45947.32130787037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>45565</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45946</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>45946.62552083333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>45947</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>45947.45825231481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45946.40040509259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45947</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>45784.59996527778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>45951</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>45645</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45853.46285879629</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45949.89403935185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44924</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>45855</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45854</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45854</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45307</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45754</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45754</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45699</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45854</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>45854</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45856</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45793</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45461</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45856</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>45860</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45772</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45842</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>45772</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45953.41005787037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>45867.33517361111</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45866.39311342593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45867.5820949074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45867</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45865.98025462963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>45758</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45952.59712962963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45527.38928240741</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45334.58969907407</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45672.58905092593</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45838</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45569.44310185185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>45869</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>45956.58162037037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45954</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32628,7 +32628,7 @@
         <v>45266</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32685,7 +32685,7 @@
         <v>45758.41444444445</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32742,7 +32742,7 @@
         <v>45956.54016203704</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>45684.50480324074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32861,7 +32861,7 @@
         <v>45954.52863425926</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32918,7 +32918,7 @@
         <v>44638</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32975,7 +32975,7 @@
         <v>45824</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>45954</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45954.44049768519</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>45334</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44824</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>45954</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>45873</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>45874.88440972222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>45201.51458333333</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44776.29803240741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44540.45888888889</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45958.54601851852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45958.54880787037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45569.39258101852</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45959</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45959.47518518518</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44323</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45356</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45461</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>45961.72688657408</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45961.59975694444</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34202,7 +34202,7 @@
         <v>45960.48515046296</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>45960.61782407408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45460.63473379629</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45960.94854166666</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45960.38283564815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34502,7 +34502,7 @@
         <v>45720.42957175926</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         <v>45750.48366898148</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>45960.41800925926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>44257</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>45960.33452546296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>45121</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>45879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45964.39326388889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45965.60561342593</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>45684.57827546296</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>45509</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45966</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>45966</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35268,7 +35268,7 @@
         <v>45623</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45812</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45966</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>46009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44937</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45966</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>45966</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>45087.93266203703</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>45967.60777777778</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35806,7 +35806,7 @@
         <v>45971.60599537037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35868,7 +35868,7 @@
         <v>45527.71361111111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>45971</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>45971.56390046296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>45968.54429398148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>45882.6293287037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>45028</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>45973.55402777778</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>45882</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>45973.3852662037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44938</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>45106</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>45975</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>45975</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>45975.60260416667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>45975</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>45975</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         <v>45975.34559027778</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>45975</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45371.42046296296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>45758</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>45713</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>45979.58141203703</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>46018.76515046296</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37244,7 +37244,7 @@
         <v>44876.58167824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37306,7 +37306,7 @@
         <v>45084.42386574074</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37363,7 +37363,7 @@
         <v>44502</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>46018.75792824074</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>45006.70236111111</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37534,7 +37534,7 @@
         <v>45981</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37591,7 +37591,7 @@
         <v>45980.53747685185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
         <v>45981.44429398148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37705,7 +37705,7 @@
         <v>45980.53219907408</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>45981.59392361111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37824,7 +37824,7 @@
         <v>45562</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         <v>45036</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37943,7 +37943,7 @@
         <v>45982.34418981482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45618</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>44613.39621527777</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>45684.59545138889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>45645</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>45985.43719907408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>45985.35861111111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>46029.42730324074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>45461.31162037037</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>45987.59333333333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38543,7 +38543,7 @@
         <v>45987.58894675926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         <v>45987.59578703704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>45152</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38714,7 +38714,7 @@
         <v>45988</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38771,7 +38771,7 @@
         <v>45435</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>45148.59436342592</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44903</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>45763.53380787037</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>46035.31091435185</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>45462</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>46034.40708333333</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>45057</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39242,7 +39242,7 @@
         <v>45992.41800925926</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39304,7 +39304,7 @@
         <v>45758.66105324074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39361,7 +39361,7 @@
         <v>45429</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>45695</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44763.76623842592</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>45226</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
         <v>45994.62194444444</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
         <v>45476</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>45308.46021990741</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>45741.51133101852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         <v>46030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
         <v>45420</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39951,7 +39951,7 @@
         <v>45995</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40013,7 +40013,7 @@
         <v>45996</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40075,7 +40075,7 @@
         <v>45720</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40132,7 +40132,7 @@
         <v>45999</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>45338</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>44984</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40303,7 +40303,7 @@
         <v>44915</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40360,7 +40360,7 @@
         <v>45525.73809027778</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40417,7 +40417,7 @@
         <v>45996</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40479,7 +40479,7 @@
         <v>45996</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>45533.54149305556</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45462.36731481482</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>45287</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44428.3752662037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40784,7 +40784,7 @@
         <v>45614.53978009259</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>45226</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40903,7 +40903,7 @@
         <v>45765.83021990741</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40960,7 +40960,7 @@
         <v>46001.43685185185</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41022,7 +41022,7 @@
         <v>45223.46148148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>45624.54982638889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>46003</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>46003</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
         <v>46002</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41327,7 +41327,7 @@
         <v>45741.50890046296</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45475.61498842593</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45475.61484953704</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45534</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41575,7 +41575,7 @@
         <v>45534.48609953704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41632,7 +41632,7 @@
         <v>44582.56030092593</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41694,7 +41694,7 @@
         <v>45434</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41756,7 +41756,7 @@
         <v>45725.43443287037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41813,7 +41813,7 @@
         <v>45769.65833333333</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41870,7 +41870,7 @@
         <v>46002.68337962963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41932,7 +41932,7 @@
         <v>45400.57085648148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41989,7 +41989,7 @@
         <v>46003</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42051,7 +42051,7 @@
         <v>46003</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42113,7 +42113,7 @@
         <v>45582.46710648148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>46007</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>46006</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>46006</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44567.60921296296</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42418,7 +42418,7 @@
         <v>45526.47052083333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>46048</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>46049.45135416667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42604,7 +42604,7 @@
         <v>46006</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42661,7 +42661,7 @@
         <v>46006</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42718,7 +42718,7 @@
         <v>46006</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45775.31925925926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>45775</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42899,7 +42899,7 @@
         <v>45140.4346412037</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42956,7 +42956,7 @@
         <v>46048.37341435185</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43013,7 +43013,7 @@
         <v>46048.38172453704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43070,7 +43070,7 @@
         <v>46029</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>45741.57142361111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43194,7 +43194,7 @@
         <v>46050.59276620371</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43251,7 +43251,7 @@
         <v>46050.34530092592</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>44883.60331018519</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43370,7 +43370,7 @@
         <v>46029</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43432,7 +43432,7 @@
         <v>45764</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43494,7 +43494,7 @@
         <v>46050.30298611111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43556,7 +43556,7 @@
         <v>45575.8860300926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43613,7 +43613,7 @@
         <v>46048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>46050.46403935185</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43732,7 +43732,7 @@
         <v>46020</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>46008.3591087963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43851,7 +43851,7 @@
         <v>46008</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43913,7 +43913,7 @@
         <v>46050.45726851852</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43970,7 +43970,7 @@
         <v>44762</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44032,7 +44032,7 @@
         <v>45155</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44809.5108912037</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
         <v>46008.59253472222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>46050.58836805556</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44270,7 +44270,7 @@
         <v>45268.51887731482</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>45328</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>45057.29209490741</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>46020</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44508,7 +44508,7 @@
         <v>46020</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>46010</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>45615.60076388889</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>45575</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>46010.68053240741</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>46020</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>45470.60206018519</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>46010</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45638.46268518519</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45562.47100694444</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>46052.56929398148</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>45079</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44323</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>46057.61579861111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>46014.45489583333</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>45441.46148148148</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>46014.45809027777</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>45212.56666666667</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>45572</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>46014.48482638889</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>45203.32716435185</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>45506.69709490741</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>45729.47384259259</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>45453.35074074074</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45968,7 +45968,7 @@
         <v>44951</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46030,7 +46030,7 @@
         <v>45282</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45684</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>46030</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>46058.34146990741</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46268,7 +46268,7 @@
         <v>45436.58063657407</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46330,7 +46330,7 @@
         <v>46029</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46392,7 +46392,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46449,7 +46449,7 @@
         <v>45621.39585648148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46511,7 +46511,7 @@
         <v>44760.45733796297</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46568,7 +46568,7 @@
         <v>45050</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46630,7 +46630,7 @@
         <v>45462.45428240741</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44817.3400462963</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46754,7 +46754,7 @@
         <v>45681.43167824074</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46811,7 +46811,7 @@
         <v>45400.48208333334</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46868,7 +46868,7 @@
         <v>45373.80883101852</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46930,7 +46930,7 @@
         <v>45525.74459490741</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46987,7 +46987,7 @@
         <v>45469</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47049,7 +47049,7 @@
         <v>45110</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         <v>44323.47359953704</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47163,7 +47163,7 @@
         <v>44903</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47225,7 +47225,7 @@
         <v>44700</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47287,7 +47287,7 @@
         <v>45434.67739583334</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         <v>45562.54707175926</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47411,7 +47411,7 @@
         <v>45761</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47473,7 +47473,7 @@
         <v>45420</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47530,7 +47530,7 @@
         <v>45632.40945601852</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47587,7 +47587,7 @@
         <v>45058.57238425926</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47644,7 +47644,7 @@
         <v>45679</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47701,7 +47701,7 @@
         <v>45545</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47763,7 +47763,7 @@
         <v>45414.46113425926</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47820,7 +47820,7 @@
         <v>45398</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>45450.41297453704</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>45450.42415509259</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47991,7 +47991,7 @@
         <v>45244</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48048,7 +48048,7 @@
         <v>44596.46431712963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48110,7 +48110,7 @@
         <v>44465</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48167,7 +48167,7 @@
         <v>45054.68832175926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48224,7 +48224,7 @@
         <v>45212.54</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>45645.41983796296</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48343,7 +48343,7 @@
         <v>45244</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48400,7 +48400,7 @@
         <v>44610.46342592593</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48462,7 +48462,7 @@
         <v>45560</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44950</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44950</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45518.36734953704</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>44830.69011574074</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>45428.39799768518</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48814,7 +48814,7 @@
         <v>45461</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48871,7 +48871,7 @@
         <v>45371.62233796297</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48928,7 +48928,7 @@
         <v>45763</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48990,7 +48990,7 @@
         <v>45469</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49047,7 +49047,7 @@
         <v>44802</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49104,7 +49104,7 @@
         <v>45201</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49161,7 +49161,7 @@
         <v>45510.34908564815</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>45764</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49285,7 +49285,7 @@
         <v>45259</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49342,7 +49342,7 @@
         <v>45532</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49399,7 +49399,7 @@
         <v>45639</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>45211</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49518,7 +49518,7 @@
         <v>44896</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49575,7 +49575,7 @@
         <v>45559.42854166667</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44865</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49694,7 +49694,7 @@
         <v>45468</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49751,7 +49751,7 @@
         <v>45219.49118055555</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49813,7 +49813,7 @@
         <v>45714.65424768518</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49875,7 +49875,7 @@
         <v>45461</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49932,7 +49932,7 @@
         <v>45632.34158564815</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49989,7 +49989,7 @@
         <v>44694</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50051,7 +50051,7 @@
         <v>45502</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50108,7 +50108,7 @@
         <v>45447</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50165,7 +50165,7 @@
         <v>45324.58115740741</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50222,7 +50222,7 @@
         <v>44571.48952546297</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50279,7 +50279,7 @@
         <v>45446</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50336,7 +50336,7 @@
         <v>45379</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50393,7 +50393,7 @@
         <v>45713</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50455,7 +50455,7 @@
         <v>45758.65695601852</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50512,7 +50512,7 @@
         <v>45703</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50574,7 +50574,7 @@
         <v>45414</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50631,7 +50631,7 @@
         <v>45684.54350694444</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50688,7 +50688,7 @@
         <v>45226</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50750,7 +50750,7 @@
         <v>45671.31046296296</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50807,7 +50807,7 @@
         <v>45590</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50864,7 +50864,7 @@
         <v>44883</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50926,7 +50926,7 @@
         <v>45107</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50983,7 +50983,7 @@
         <v>45609.56731481481</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51045,7 +51045,7 @@
         <v>45692.5511574074</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51102,7 +51102,7 @@
         <v>45366.59958333334</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51164,7 +51164,7 @@
         <v>44595.48184027777</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51221,7 +51221,7 @@
         <v>45775</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45258</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45258</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51402,7 +51402,7 @@
         <v>45328.65340277777</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51459,7 +51459,7 @@
         <v>45029.66664351852</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51521,7 +51521,7 @@
         <v>45175</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51578,7 +51578,7 @@
         <v>44379.39650462963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>45384</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>45726.54690972222</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51764,7 +51764,7 @@
         <v>45244</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51821,7 +51821,7 @@
         <v>45673.7546875</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51878,7 +51878,7 @@
         <v>45562.44609953704</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51940,7 +51940,7 @@
         <v>45172</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51997,7 +51997,7 @@
         <v>45769.66221064814</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52054,7 +52054,7 @@
         <v>45201.52802083334</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52111,7 +52111,7 @@
         <v>45492.47939814815</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         <v>45519</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52230,7 +52230,7 @@
         <v>44622.54008101852</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52287,7 +52287,7 @@
         <v>45587.60549768519</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52349,7 +52349,7 @@
         <v>44851</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52406,7 +52406,7 @@
         <v>45510.66981481481</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52463,7 +52463,7 @@
         <v>45618</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52525,7 +52525,7 @@
         <v>44817</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52582,7 +52582,7 @@
         <v>45308.45737268519</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52639,7 +52639,7 @@
         <v>45629.40383101852</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52696,7 +52696,7 @@
         <v>45132</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52753,7 +52753,7 @@
         <v>45723.86552083334</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52810,7 +52810,7 @@
         <v>45572</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         <v>45386.6375</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52929,7 +52929,7 @@
         <v>45190.36746527778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52986,7 +52986,7 @@
         <v>45775</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53048,7 +53048,7 @@
         <v>45562.46678240741</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53110,7 +53110,7 @@
         <v>45562.46758101852</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53172,7 +53172,7 @@
         <v>45562.4684837963</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53234,7 +53234,7 @@
         <v>45562</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53291,7 +53291,7 @@
         <v>44603</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53348,7 +53348,7 @@
         <v>45758</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53410,7 +53410,7 @@
         <v>45149.36230324074</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53467,7 +53467,7 @@
         <v>45264</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53524,7 +53524,7 @@
         <v>45264</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53581,7 +53581,7 @@
         <v>45764</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53643,7 +53643,7 @@
         <v>45035</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53705,7 +53705,7 @@
         <v>44770</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53767,7 +53767,7 @@
         <v>45638.63417824074</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53824,7 +53824,7 @@
         <v>45777.59119212963</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53881,7 +53881,7 @@
         <v>45776.32688657408</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53938,7 +53938,7 @@
         <v>45776</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54000,7 +54000,7 @@
         <v>45777</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54062,7 +54062,7 @@
         <v>45783.56596064815</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54119,7 +54119,7 @@
         <v>45783.57887731482</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54176,7 +54176,7 @@
         <v>45783.56719907407</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54233,7 +54233,7 @@
         <v>45639</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54295,7 +54295,7 @@
         <v>45460.59121527777</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54352,7 +54352,7 @@
         <v>44683</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54409,7 +54409,7 @@
         <v>45785.45800925926</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54471,7 +54471,7 @@
         <v>45587.49407407407</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54528,7 +54528,7 @@
         <v>45785.66783564815</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54585,7 +54585,7 @@
         <v>45169</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54642,7 +54642,7 @@
         <v>45784.60358796296</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54699,7 +54699,7 @@
         <v>45789.46739583334</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45789.66512731482</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45786.4487037037</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45786.60795138889</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45786.64372685185</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45791.56040509259</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45790.43143518519</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45776.56165509259</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55170,7 +55170,7 @@
         <v>45791.56663194444</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55232,7 +55232,7 @@
         <v>45791.37291666667</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55294,7 +55294,7 @@
         <v>45545</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55356,7 +55356,7 @@
         <v>45791.43831018519</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55418,7 +55418,7 @@
         <v>45791.62258101852</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55480,7 +55480,7 @@
         <v>45791.55136574074</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55542,7 +55542,7 @@
         <v>45790.54108796296</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55604,7 +55604,7 @@
         <v>45791.49532407407</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         <v>45623</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55728,7 +55728,7 @@
         <v>45792.37693287037</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55790,7 +55790,7 @@
         <v>45792.58064814815</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55852,7 +55852,7 @@
         <v>45792.52019675926</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55909,7 +55909,7 @@
         <v>45793.30849537037</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55966,7 +55966,7 @@
         <v>45793</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56023,7 +56023,7 @@
         <v>45793</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56080,7 +56080,7 @@
         <v>45792.37883101852</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56142,7 +56142,7 @@
         <v>45615</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56199,7 +56199,7 @@
         <v>45796.36059027778</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56261,7 +56261,7 @@
         <v>45754</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         <v>45257.58802083333</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56385,7 +56385,7 @@
         <v>45404.31303240741</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56447,7 +56447,7 @@
         <v>45796.42369212963</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45246</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45833.56451388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45173</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>45036</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45618</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45916.6836574074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45848.35298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45854</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45645</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45796.36407407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45993</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44509.6484837963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45565</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45748</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>45303</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45904.58084490741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45841.56418981482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>45744.58121527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>45845.52780092593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>45637</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>45188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>46020</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45995</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>46062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45576</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44603</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>45763</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45799.50837962963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44832.45053240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44417</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44337</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44515.6055787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44421</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44414.46858796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44465</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44550</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44308</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44510.37704861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44526</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44327.485625</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44791.68517361111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44400.52291666667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44400</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44817</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44273</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>44638</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>44515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>44566</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44622</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>44320.3937962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>44607.64876157408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44337</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>44516.44996527778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>44516.45724537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44434</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44756</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44266.56918981481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>44426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44806.42862268518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44547</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44435</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>44791.42592592593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>44405</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44526</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44376</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44810.64122685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44357.43211805556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44420.48331018518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44420.56142361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44613.54695601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44420.5846875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44719</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44763.73310185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>44791.68009259259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44799.50680555555</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>44699.56317129629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44858</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44817</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44830</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44836.91193287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44872.51354166667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44663</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>44741.31314814815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44858</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44256</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44594</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44602.43873842592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44606</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44516</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44678</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44706</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>44370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>44469</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45321</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>45743</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45103.57027777778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45211.67328703704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45335.4540625</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45660.37150462963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44839.55957175926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45678.46741898148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45152</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44869.3710300926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45335</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45418.65559027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45351</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>45748.38106481481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>45069</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>45484</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>45621.4802199074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>45356</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>45608.38739583334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45618.44652777778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44664.50883101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>45244</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>45037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44362.44429398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45232</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45419.96755787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45551.46563657407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45559</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45226.60950231482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45414.48494212963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44953</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45343.26494212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45258</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45715.47229166667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45653.66377314815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45147.61315972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45420.56835648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>44834</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45435.62854166667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45162.65785879629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>45644.34481481482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>45051</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>45659.39619212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44887.63310185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44903</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45250.56344907408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44649</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45219.5571412037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44537</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44770.51526620371</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44938</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45441</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45162</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45055</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45751</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45196.64975694445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>45216.54363425926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45216.56710648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>45461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45461</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>45469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45730.28657407407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45385.68678240741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44924.58979166667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45733.5946875</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>45547.66456018519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45261</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45443.30052083333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45475.4516087963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45211</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45155.6027662037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>45819</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>45819.38481481482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>45527.59814814815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>45562.46731481481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>45562.46958333333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45562.47201388889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>45818.62083333333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>45887.49913194445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44566</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>45735.62614583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44896</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>45469.35829861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45887.38981481481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45821</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45821</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45820.35928240741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45821.44164351852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45250</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45821</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45575</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>45799.47836805556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45224</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>45824.62241898148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45825.61381944444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45147.60292824074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45825.6434375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45825.60394675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44817.55997685185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45637.79212962963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45891</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>45891.4766087963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45891</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45062</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>45826.81473379629</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>45433.51168981481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>45894</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45826.35269675926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45895.40347222222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45826.46570601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45826.47554398148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45831.48282407408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45831.60834490741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45831.62034722222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45739</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45831.48174768518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45831.48604166666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45896.42962962963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45897.59447916667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>45896.45993055555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45093.4815162037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45673.60954861111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45726.47511574074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45729</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45897.64236111111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45898.52128472222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45832.48880787037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45898.58835648148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45005.34288194445</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44790.71461805556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45090</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44776.29414351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45898.46390046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45898.51598379629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45898.51934027778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45835</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45901</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45786.61974537037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45746.69599537037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45898.34681712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45898.36056712963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45106</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45835.60905092592</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>44904.38814814815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45898.39212962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45898.44184027778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45835.35399305556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45898.63945601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45833.84502314815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45835.5549537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>45547</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45902.47445601852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45436</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45279.59862268518</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45902.58962962963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45902.64282407407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45903.67486111111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45838</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45902.65138888889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>45838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>45902.45571759259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45230.55438657408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>45905.56454861111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>45905.47957175926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45905</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45904.64195601852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>45839</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45905</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44868</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>45905.34576388889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45905.34984953704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45905</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45905</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45838.6309375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45905.42362268519</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45904.57653935185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45905</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>45905.44949074074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45904.60241898148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45840.60511574074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45841.62028935185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45840.32103009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45841</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45097.32498842593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45841</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45908.36113425926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45720</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45216.3637037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45840.54100694445</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45909</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45909.47049768519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45909</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45841</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45909</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>45840.59494212963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45824</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45840.58363425926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45845.57174768519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45845.57493055556</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45841</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>45107.59769675926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45911.46101851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45033</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>45201</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>45201.5355324074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>45839</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>45629.40688657408</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>45845</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>45845.53253472222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45845.51818287037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>45845.5663425926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>45842</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>45244</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>45912.35234953704</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22336,7 +22336,7 @@
         <v>45845.53645833334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45912.39915509259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>45310.48018518519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45790</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>45912.45163194444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45912.40546296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>45912.47396990741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45581</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>45847.59761574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>45846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>45770.43998842593</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>45916.4562962963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>45848.34846064815</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45565</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45916.45337962963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45784.59996527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45916.4603587963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45853.46285879629</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45918.47267361111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>45855</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45103</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45919</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45854</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45625.45358796296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45918.3608912037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45854</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>45754</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>45754</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45854</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45854</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45918.47600694445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>45856</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>45793</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>45922.37290509259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>45856</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45716.47974537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45860</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>45922.98969907407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45922.36545138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45842</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>44757.58894675926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45264</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45323.47203703703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45772</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>45867.33517361111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45866.39311342593</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>45867.5820949074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45867</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45865.98025462963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45925.64094907408</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45527.38928240741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45925.50539351852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45925.37614583333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45838</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44687</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45569.44310185185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45926.37900462963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45148.6049537037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45758.41444444445</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45928.43569444444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>45824</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>45926.35246527778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45926.49839120371</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45926.34967592593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45637.76869212963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45927.42596064815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45390</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45929</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45927.48753472222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>45926.49155092592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45149.38164351852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45145</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44812</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44635</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45873</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>45930.56335648148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         <v>45874.88440972222</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>45335.41743055556</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45930.32061342592</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45933.40813657407</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45510.6646875</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>45763</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>45763</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45569.39258101852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45356</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45931.81756944444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45932.66314814815</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45933.37097222222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45401.61784722222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45933.38136574074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>45750.48366898148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45933.44618055555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>45425.50491898148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>45933.34479166667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45879</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45936.62204861111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45645</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44924</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>45307</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>45699</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45812</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45461</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28579,7 +28579,7 @@
         <v>45937.42246527778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45882.6293287037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45938.33600694445</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45937.72615740741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45937</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45882</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45772</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>45938</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>45758</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45939.41119212963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45939.59887731481</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>45334.58969907407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45672.58905092593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45941.66935185185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45940.45478009259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45943.38633101852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>45266</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>45684.50480324074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44638</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>45940.42521990741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>45334</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44824</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>45947</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30007,7 +30007,7 @@
         <v>45947.58401620371</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>45201.51458333333</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>45947.32130787037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45946</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>44776.29803240741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>45946.62552083333</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>45947</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44540.45888888889</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>45947.45825231481</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30550,7 +30550,7 @@
         <v>45946.40040509259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30607,7 +30607,7 @@
         <v>45947</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45951</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>44323</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45461</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>45949.89403935185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>45460.63473379629</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>45720.42957175926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44257</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>45121</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>45953.41005787037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31187,7 +31187,7 @@
         <v>45952.59712962963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>45684.57827546296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>45509</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45956.58162037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>45954</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>45623</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>45956.54016203704</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44937</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45954.52863425926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45087.93266203703</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45954</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45527.71361111111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>45954.44049768519</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45954</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45958.54601851852</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>45958.54880787037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>45959</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32201,7 +32201,7 @@
         <v>45959.47518518518</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32258,7 +32258,7 @@
         <v>45028</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45961.72688657408</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45961.59975694444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45960.48515046296</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45960.61782407408</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44938</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45106</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45960.94854166666</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>45960.38283564815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45960.41800925926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45960.33452546296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45371.42046296296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45964.39326388889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45758</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>45965.60561342593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>45713</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44876.58167824074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45084.42386574074</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>45966</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44502</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45006.70236111111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>45966</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45966</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>46009</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>45966</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>45966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45967.60777777778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>45971.60599537037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>45971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45971.56390046296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45968.54429398148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45562</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45036</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45618</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>44613.39621527777</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>45973.55402777778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>45684.59545138889</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45645</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45973.3852662037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45975</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>45975</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>45975.60260416667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45975</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34824,7 +34824,7 @@
         <v>45461.31162037037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>45975</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>45975.34559027778</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35000,7 +35000,7 @@
         <v>45975</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>45979.58141203703</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45152</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45981</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45980.53747685185</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45981.44429398148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45980.53219907408</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         <v>45981.59392361111</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>45435</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35533,7 +35533,7 @@
         <v>45148.59436342592</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35590,7 +35590,7 @@
         <v>45982.34418981482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>44903</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>45763.53380787037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>45985.43719907408</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>45462</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>45985.35861111111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>45987.59333333333</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45057</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36061,7 +36061,7 @@
         <v>45758.66105324074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>45987.58894675926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>45987.59578703704</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>45429</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45695</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45988</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>44763.76623842592</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36465,7 +36465,7 @@
         <v>45226</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45476</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>45308.46021990741</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>45741.51133101852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>45420</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>46035.31091435185</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>46034.40708333333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45992.41800925926</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>45720</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>45338</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>44984</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>44915</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45525.73809027778</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45994.62194444444</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>46030</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>45995</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>45996</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>45533.54149305556</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45462.36731481482</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45287</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44428.3752662037</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>45999</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>45996</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>45614.53978009259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>45226</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37950,7 +37950,7 @@
         <v>45996</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>45765.83021990741</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>45223.46148148148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38131,7 +38131,7 @@
         <v>45624.54982638889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38188,7 +38188,7 @@
         <v>46001.43685185185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>45741.50890046296</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>45475.61498842593</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>45475.61484953704</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38436,7 +38436,7 @@
         <v>45534</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>45534.48609953704</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>44582.56030092593</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38617,7 +38617,7 @@
         <v>45434</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>45725.43443287037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>45769.65833333333</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>45400.57085648148</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>46003</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>45582.46710648148</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>46003</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>46002</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44567.60921296296</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>45526.47052083333</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>46002.68337962963</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>46003</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>46003</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         <v>45775.31925925926</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         <v>45775</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39522,7 +39522,7 @@
         <v>46007</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39584,7 +39584,7 @@
         <v>45140.4346412037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39641,7 +39641,7 @@
         <v>46006</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>46006</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45741.57142361111</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39827,7 +39827,7 @@
         <v>44883.60331018519</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>45764</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39951,7 +39951,7 @@
         <v>46048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40013,7 +40013,7 @@
         <v>46049.45135416667</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40075,7 +40075,7 @@
         <v>46006</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40132,7 +40132,7 @@
         <v>45575.8860300926</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>46006</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>46006</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>44762</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45155</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44809.5108912037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>46048.37341435185</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>46048.38172453704</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45268.51887731482</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>46050.59276620371</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>45057.29209490741</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40784,7 +40784,7 @@
         <v>46050.34530092592</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>46050.30298611111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40903,7 +40903,7 @@
         <v>45615.60076388889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40960,7 +40960,7 @@
         <v>45575</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>46048</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41079,7 +41079,7 @@
         <v>46050.46403935185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>46008.3591087963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>46008</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>46050.45726851852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45470.60206018519</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>46008.59253472222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41436,7 +41436,7 @@
         <v>46050.58836805556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41493,7 +41493,7 @@
         <v>45328</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41550,7 +41550,7 @@
         <v>45562.47100694444</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41612,7 +41612,7 @@
         <v>46010</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>45079</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41731,7 +41731,7 @@
         <v>44323</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41788,7 +41788,7 @@
         <v>46010.68053240741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45441.46148148148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>46010</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45638.46268518519</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45107</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45212.56666666667</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42145,7 +42145,7 @@
         <v>46052.56929398148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42202,7 +42202,7 @@
         <v>45203.32716435185</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>46057.61579861111</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>45506.69709490741</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>46014.45489583333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>45729.47384259259</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42492,7 +42492,7 @@
         <v>46014.45809027777</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42549,7 +42549,7 @@
         <v>45453.35074074074</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42611,7 +42611,7 @@
         <v>45572</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42668,7 +42668,7 @@
         <v>46014.48482638889</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42725,7 +42725,7 @@
         <v>44951</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         <v>45282</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42844,7 +42844,7 @@
         <v>45684</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42901,7 +42901,7 @@
         <v>45436.58063657407</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42963,7 +42963,7 @@
         <v>44949</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43020,7 +43020,7 @@
         <v>45621.39585648148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43082,7 +43082,7 @@
         <v>44760.45733796297</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43139,7 +43139,7 @@
         <v>46058.34146990741</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43201,7 +43201,7 @@
         <v>46020</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43258,7 +43258,7 @@
         <v>46061.53575231481</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>46020</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>46018.75792824074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>46018.76515046296</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>46020</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>46020</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45462.45428240741</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43724,7 +43724,7 @@
         <v>44817.3400462963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43786,7 +43786,7 @@
         <v>45681.43167824074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43843,7 +43843,7 @@
         <v>46062.54159722223</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43900,7 +43900,7 @@
         <v>45400.48208333334</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43957,7 +43957,7 @@
         <v>46064</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44014,7 +44014,7 @@
         <v>46064</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44071,7 +44071,7 @@
         <v>46064.50944444445</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44128,7 +44128,7 @@
         <v>45373.80883101852</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44190,7 +44190,7 @@
         <v>45525.74459490741</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44247,7 +44247,7 @@
         <v>45469</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44309,7 +44309,7 @@
         <v>45110</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44366,7 +44366,7 @@
         <v>44323.47359953704</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44423,7 +44423,7 @@
         <v>44903</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44485,7 +44485,7 @@
         <v>44700</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44547,7 +44547,7 @@
         <v>45434.67739583334</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45562.54707175926</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>45761</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>45420</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44790,7 +44790,7 @@
         <v>45632.40945601852</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44847,7 +44847,7 @@
         <v>45058.57238425926</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44904,7 +44904,7 @@
         <v>45679</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44961,7 +44961,7 @@
         <v>45545</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>46029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45085,7 +45085,7 @@
         <v>45937</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45142,7 +45142,7 @@
         <v>46029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45204,7 +45204,7 @@
         <v>45414.46113425926</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         <v>45398</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45318,7 +45318,7 @@
         <v>46029.42730324074</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45380,7 +45380,7 @@
         <v>46029</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45442,7 +45442,7 @@
         <v>45450.41297453704</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45499,7 +45499,7 @@
         <v>45450.42415509259</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45556,7 +45556,7 @@
         <v>46072.37381944444</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45613,7 +45613,7 @@
         <v>46065.62987268518</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45670,7 +45670,7 @@
         <v>45244</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45727,7 +45727,7 @@
         <v>44596.46431712963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45789,7 +45789,7 @@
         <v>46030</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45851,7 +45851,7 @@
         <v>46072.56741898148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>44465</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45965,7 +45965,7 @@
         <v>45054.68832175926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46022,7 +46022,7 @@
         <v>45212.54</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46084,7 +46084,7 @@
         <v>45645.41983796296</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46141,7 +46141,7 @@
         <v>45244</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46198,7 +46198,7 @@
         <v>44610.46342592593</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46260,7 +46260,7 @@
         <v>45560</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46322,7 +46322,7 @@
         <v>44950</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46379,7 +46379,7 @@
         <v>44950</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46436,7 +46436,7 @@
         <v>45518.36734953704</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46493,7 +46493,7 @@
         <v>44830.69011574074</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46550,7 +46550,7 @@
         <v>45428.39799768518</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46612,7 +46612,7 @@
         <v>45461</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46669,7 +46669,7 @@
         <v>45371.62233796297</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46726,7 +46726,7 @@
         <v>45763</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46788,7 +46788,7 @@
         <v>45469</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         <v>44802</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46902,7 +46902,7 @@
         <v>45201</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46959,7 +46959,7 @@
         <v>45510.34908564815</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47021,7 +47021,7 @@
         <v>45764</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47083,7 +47083,7 @@
         <v>45259</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47140,7 +47140,7 @@
         <v>45532</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47197,7 +47197,7 @@
         <v>45639</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45211</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47316,7 +47316,7 @@
         <v>44896</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47373,7 +47373,7 @@
         <v>45559.42854166667</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47430,7 +47430,7 @@
         <v>44865</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>45468</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>45219.49118055555</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>45714.65424768518</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45461</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47730,7 +47730,7 @@
         <v>45632.34158564815</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47787,7 +47787,7 @@
         <v>44694</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47849,7 +47849,7 @@
         <v>45502</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         <v>45447</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47963,7 +47963,7 @@
         <v>45324.58115740741</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48020,7 +48020,7 @@
         <v>44571.48952546297</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48077,7 +48077,7 @@
         <v>45446</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48134,7 +48134,7 @@
         <v>45379</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48191,7 +48191,7 @@
         <v>45713</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48253,7 +48253,7 @@
         <v>45758.65695601852</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48310,7 +48310,7 @@
         <v>45703</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48372,7 +48372,7 @@
         <v>45414</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         <v>45684.54350694444</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48486,7 +48486,7 @@
         <v>45226</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48548,7 +48548,7 @@
         <v>45671.31046296296</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48605,7 +48605,7 @@
         <v>45590</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48662,7 +48662,7 @@
         <v>44883</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48724,7 +48724,7 @@
         <v>45107</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48781,7 +48781,7 @@
         <v>45609.56731481481</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48843,7 +48843,7 @@
         <v>45692.5511574074</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48900,7 +48900,7 @@
         <v>45366.59958333334</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48962,7 +48962,7 @@
         <v>44595.48184027777</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49019,7 +49019,7 @@
         <v>45775</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49081,7 +49081,7 @@
         <v>45258</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49138,7 +49138,7 @@
         <v>45258</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49200,7 +49200,7 @@
         <v>45328.65340277777</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49257,7 +49257,7 @@
         <v>45029.66664351852</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45175</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>44379.39650462963</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49438,7 +49438,7 @@
         <v>45384</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45726.54690972222</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49562,7 +49562,7 @@
         <v>45244</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49619,7 +49619,7 @@
         <v>45673.7546875</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49676,7 +49676,7 @@
         <v>45562.44609953704</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49738,7 +49738,7 @@
         <v>45172</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49795,7 +49795,7 @@
         <v>45769.66221064814</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49852,7 +49852,7 @@
         <v>45201.52802083334</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49909,7 +49909,7 @@
         <v>45492.47939814815</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49971,7 +49971,7 @@
         <v>45519</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44622.54008101852</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         <v>45587.60549768519</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50147,7 +50147,7 @@
         <v>44851</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50204,7 +50204,7 @@
         <v>45510.66981481481</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50261,7 +50261,7 @@
         <v>45618</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50323,7 +50323,7 @@
         <v>44817</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50380,7 +50380,7 @@
         <v>45308.45737268519</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50437,7 +50437,7 @@
         <v>45629.40383101852</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50494,7 +50494,7 @@
         <v>45132</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50551,7 +50551,7 @@
         <v>45723.86552083334</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50608,7 +50608,7 @@
         <v>45572</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50665,7 +50665,7 @@
         <v>45386.6375</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50727,7 +50727,7 @@
         <v>45190.36746527778</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50784,7 +50784,7 @@
         <v>45775</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50846,7 +50846,7 @@
         <v>45562.46678240741</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50908,7 +50908,7 @@
         <v>45562.46758101852</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50970,7 +50970,7 @@
         <v>45562.4684837963</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45562</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>44603</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45758</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51208,7 +51208,7 @@
         <v>45149.36230324074</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51265,7 +51265,7 @@
         <v>45264</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51322,7 +51322,7 @@
         <v>45264</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51379,7 +51379,7 @@
         <v>45764</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51441,7 +51441,7 @@
         <v>45035</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>44770</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45638.63417824074</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45777.59119212963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45776.32688657408</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45776</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51798,7 +51798,7 @@
         <v>45777</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45783.56596064815</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45783.57887731482</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45783.56719907407</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45639</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52093,7 +52093,7 @@
         <v>45460.59121527777</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>44683</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52207,7 +52207,7 @@
         <v>45785.45800925926</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45587.49407407407</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52326,7 +52326,7 @@
         <v>45785.66783564815</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45169</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45784.60358796296</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45789.46739583334</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52554,7 +52554,7 @@
         <v>45789.66512731482</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45786.4487037037</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45786.60795138889</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>45786.64372685185</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>45791.56040509259</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45790.43143518519</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52906,7 +52906,7 @@
         <v>45776.56165509259</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45791.56663194444</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53030,7 +53030,7 @@
         <v>45791.37291666667</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53092,7 +53092,7 @@
         <v>45545</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53154,7 +53154,7 @@
         <v>45791.43831018519</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53216,7 +53216,7 @@
         <v>45791.62258101852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53278,7 +53278,7 @@
         <v>45791.55136574074</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53340,7 +53340,7 @@
         <v>45790.54108796296</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53402,7 +53402,7 @@
         <v>45791.49532407407</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         <v>45623</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53526,7 +53526,7 @@
         <v>45792.37693287037</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53588,7 +53588,7 @@
         <v>45792.58064814815</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>45792.52019675926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>45793.30849537037</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>45793</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>45793</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>45792.37883101852</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53940,7 +53940,7 @@
         <v>45615</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53997,7 +53997,7 @@
         <v>45796.36059027778</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54059,7 +54059,7 @@
         <v>45754</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54121,7 +54121,7 @@
         <v>45257.58802083333</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54183,7 +54183,7 @@
         <v>45404.31303240741</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54245,7 +54245,7 @@
         <v>45796.42369212963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54302,7 +54302,7 @@
         <v>45799.55447916667</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54364,7 +54364,7 @@
         <v>45797.75887731482</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54421,7 +54421,7 @@
         <v>45797.77982638889</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54478,7 +54478,7 @@
         <v>45797.80165509259</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54535,7 +54535,7 @@
         <v>45798.60412037037</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54597,7 +54597,7 @@
         <v>45799.59422453704</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54659,7 +54659,7 @@
         <v>45736</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54716,7 +54716,7 @@
         <v>45799.67479166666</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45799.44024305556</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54840,7 +54840,7 @@
         <v>45798.56194444445</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54902,7 +54902,7 @@
         <v>45799.51512731481</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54959,7 +54959,7 @@
         <v>45799.43309027778</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55016,7 +55016,7 @@
         <v>45799.65331018518</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55078,7 +55078,7 @@
         <v>45799.59434027778</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
         <v>45800</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55202,7 +55202,7 @@
         <v>45803.30792824074</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55259,7 +55259,7 @@
         <v>45800.31751157407</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55321,7 +55321,7 @@
         <v>45842</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55378,7 +55378,7 @@
         <v>45807.42472222223</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55440,7 +55440,7 @@
         <v>45807</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55502,7 +55502,7 @@
         <v>45807.4874537037</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55564,7 +55564,7 @@
         <v>45754</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55626,7 +55626,7 @@
         <v>45546</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55683,7 +55683,7 @@
         <v>45810</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55745,7 +55745,7 @@
         <v>45811.63986111111</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55802,7 +55802,7 @@
         <v>45608</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55859,7 +55859,7 @@
         <v>45811.48480324074</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55916,7 +55916,7 @@
         <v>45811.48766203703</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55973,7 +55973,7 @@
         <v>45810.30788194444</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         <v>45811.48958333334</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56092,7 +56092,7 @@
         <v>45811.49100694444</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56149,7 +56149,7 @@
         <v>45812.4793287037</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56211,7 +56211,7 @@
         <v>45812.43690972222</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56273,7 +56273,7 @@
         <v>45811.76255787037</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56330,7 +56330,7 @@
         <v>45812.4759375</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56392,7 +56392,7 @@
         <v>45812.5916087963</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56454,7 +56454,7 @@
         <v>45812.61487268518</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56516,7 +56516,7 @@
         <v>45811.75707175926</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56573,7 +56573,7 @@
         <v>45812</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56635,7 +56635,7 @@
         <v>45812.38479166666</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56697,7 +56697,7 @@
         <v>45812.56776620371</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>45812.60623842593</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
